--- a/database/lattice/1004.xlsx
+++ b/database/lattice/1004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>col</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>lattice</t>
-  </si>
-  <si>
-    <t>−0.00263</t>
   </si>
   <si>
     <t>gTc</t>
@@ -57,9 +54,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -97,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -108,13 +104,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -397,7 +390,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -439,18 +432,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="D2" s="5">
+        <v>-2.63E-3</v>
+      </c>
+      <c r="E2" s="5">
         <v>2.7200000000000002E-3</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
